--- a/biology/Zoologie/Avialae/Avialae.xlsx
+++ b/biology/Zoologie/Avialae/Avialae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les avialiens (clade des Avialae) regroupent les dinosaures ayant développé la musculature adéquate pour voler. Leur nom signifie « Ailes d'oiseau ». Ils comprennent les oiseaux et quelques espèces proches, comme Jeholornis ou Sapeornis, qui possédaient une morphologie déjà très proche de celle des oiseaux. Ils forment le groupe frère des Deinonychosauriens au sein des Paraviens.
 </t>
@@ -511,10 +523,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1986, Gauthier a défini le clade des avialiens comme tous les dinosaures ayant la capacité d'utiliser leur ailes pour voler (Clade basé sur une apomorphie)[1],[2].
-Cependant, plusieurs autres auteurs définissent les Avialiens comme "tous les théropodes plus proches des oiseaux que de Deinonychus" (Clade basé sur une branche)[3],[4]. Encore d'autres auteurs utilisent une autre définition, incluant moins d'espèces (Clade basé sur un nœud)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1986, Gauthier a défini le clade des avialiens comme tous les dinosaures ayant la capacité d'utiliser leur ailes pour voler (Clade basé sur une apomorphie),.
+Cependant, plusieurs autres auteurs définissent les Avialiens comme "tous les théropodes plus proches des oiseaux que de Deinonychus" (Clade basé sur une branche),. Encore d'autres auteurs utilisent une autre définition, incluant moins d'espèces (Clade basé sur un nœud).
 </t>
         </is>
       </c>
@@ -545,7 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Selon Gauthier (1986)
+          <t>Selon Gauthier (1986)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Paraves
 Deinonychosauria †
 Troodontidae †
@@ -567,8 +587,43 @@
 Ornithuromorpha
 Neornithes (Oiseaux modernes)
 Paleognathae (Autruche, émeu...)
-Neognathae (Les autres oiseaux)
-Selon Gao et al., (2002)
+Neognathae (Les autres oiseaux)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Avialae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avialae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon Gao et al., (2002)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Avialae
 † Scansoriopterygidae
 Aves
@@ -580,44 +635,7 @@
 † Sapeornis
 Ornithothoraces
 † Enantiornithes
-Ornithuromorpha
-Selon Wang et al.[6], (2016)
-Selon Hartman et al[7]. (2019)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Avialae</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Avialae</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Capacité de vol</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Une nouvelle niche écologique
-Grâce à l'apparition du vol (par exaptation), les Avialiens ont pu conquérir une nouvelle niche écologique, dominée auparavant par les insectes ailés: les airs. Ils en sont par la suite devenus les principaux prédateurs. Cependant, certains Avialiens ont perdu cette aptitude, comme le Gastornis ou l'autruche.
-Apparition du vol
-La capacité de vol des Avialiens est en réalité le résultat d'une série de plusieurs évolutions. La première a été une exaptation : l'utilisation de plumes pour le vol. Chez les premiers Avifiloplumiens, la plume, qui ressemblait alors plus à un poil duveteux, devait avoir un rôle de thermorégulation ou d'ornement sexuel. Chez les Avirémigiens, l'évolution des plumes est associée au vol plané.
-Le vol battu nécessite également le développement d'une musculature adéquate et de capacités locomotrices, qui sont progressivement apparues chez les Avialiens, avec notamment le développement d'un bréchet, principal os d'insertion des muscles du vol.
-[réf. nécessaire]</t>
+Ornithuromorpha</t>
         </is>
       </c>
     </row>
@@ -642,12 +660,90 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Capacité de vol</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Une nouvelle niche écologique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grâce à l'apparition du vol (par exaptation), les Avialiens ont pu conquérir une nouvelle niche écologique, dominée auparavant par les insectes ailés: les airs. Ils en sont par la suite devenus les principaux prédateurs. Cependant, certains Avialiens ont perdu cette aptitude, comme le Gastornis ou l'autruche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Avialae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avialae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Capacité de vol</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Apparition du vol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La capacité de vol des Avialiens est en réalité le résultat d'une série de plusieurs évolutions. La première a été une exaptation : l'utilisation de plumes pour le vol. Chez les premiers Avifiloplumiens, la plume, qui ressemblait alors plus à un poil duveteux, devait avoir un rôle de thermorégulation ou d'ornement sexuel. Chez les Avirémigiens, l'évolution des plumes est associée au vol plané.
+Le vol battu nécessite également le développement d'une musculature adéquate et de capacités locomotrices, qui sont progressivement apparues chez les Avialiens, avec notamment le développement d'un bréchet, principal os d'insertion des muscles du vol.
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Avialae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avialae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Avialae vs. Aves</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Gauthier[2] a identifié 4 différentes définitions des oiseaux (Aves), contre une seule pour Avialae. Cela pose un problème, car un seul terme est utilisé pour 4 différentes définitions. Gauthier a utilisé la solution numéro 4 (groupe couronne), et a donné d'autres noms aux autres définitions.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gauthier a identifié 4 différentes définitions des oiseaux (Aves), contre une seule pour Avialae. Cela pose un problème, car un seul terme est utilisé pour 4 différentes définitions. Gauthier a utilisé la solution numéro 4 (groupe couronne), et a donné d'autres noms aux autres définitions.
 Aves peut désignier les archosauriens possédant des plumes (Avifilopluma)
 Aves peut désigner les dinosaures volants (Avialae)
 Aves peut désigner tous les animaux plus proches des Néornithes que des crocodiles (Avemetatarsalia ou Panaves)
